--- a/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,93; 5,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,84; 6,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,97; 6,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,7; 8,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>8,29; 11,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>12,55; 16,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>9,35; 13,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,29; 14,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>6,19; 8,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>9,24; 11,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,94; 9,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>9,06; 11,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,64; 1,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,77; 3,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,35; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,39; 3,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,53; 5,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,49; 6,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,14; 7,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,55; 7,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,21; 3,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,26; 4,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>3,37; 4,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,31; 5,6</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,03; 3,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,66; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,16; 1,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,24; 3,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,08; 5,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,05; 3,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,52; 4,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,69; 5,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,88; 3,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,17; 3,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,97; 2,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,28; 4,09</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,68; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,54; 3,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,73; 2,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,9; 4,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,64; 7,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,47; 9,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,1; 7,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,67; 8,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,86; 4,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,28; 6,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,18; 5,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,14; 6,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,47%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,74</t>
+          <t>4,76; 8,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,94</t>
+          <t>11,31; 14,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 11,9</t>
+          <t>9,01; 11,84</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,89</t>
+          <t>1,87; 3,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 7,83</t>
+          <t>4,37; 7,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 5,6</t>
+          <t>3,56; 5,24</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,63</t>
+          <t>1,25; 3,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,42</t>
+          <t>2,66; 5,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,09</t>
+          <t>2,24; 4,0</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,19</t>
+          <t>2,47; 3,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 8,49</t>
+          <t>5,7; 8,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 6,21</t>
+          <t>4,56; 5,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,35</t>
+          <t>2,92; 5,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,9</t>
+          <t>3,67; 6,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,03</t>
+          <t>2,87; 5,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,86</t>
+          <t>4,86; 8,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 11,85</t>
+          <t>8,31; 11,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 16,55</t>
+          <t>12,38; 16,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,43</t>
+          <t>9,42; 13,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 14,94</t>
+          <t>11,21; 14,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,48</t>
+          <t>6,25; 8,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 11,93</t>
+          <t>9,25; 11,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 9,57</t>
+          <t>6,94; 9,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 11,84</t>
+          <t>9,17; 11,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,59</t>
+          <t>0,62; 1,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,23</t>
+          <t>1,72; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,59</t>
+          <t>1,39; 2,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,5</t>
+          <t>1,89; 3,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,66</t>
+          <t>3,54; 5,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,78</t>
+          <t>4,48; 6,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,36</t>
+          <t>5,16; 7,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,35</t>
+          <t>4,48; 7,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,31</t>
+          <t>2,24; 3,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,6</t>
+          <t>3,2; 4,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,7</t>
+          <t>3,35; 4,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 5,24</t>
+          <t>3,63; 5,23</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,25</t>
+          <t>1,05; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,04</t>
+          <t>0,8; 4,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,49</t>
+          <t>0,16; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,57</t>
+          <t>1,25; 3,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,62</t>
+          <t>2,06; 5,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,87</t>
+          <t>1,04; 3,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,43</t>
+          <t>1,55; 4,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,3</t>
+          <t>2,73; 5,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,91</t>
+          <t>1,91; 3,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,38</t>
+          <t>1,07; 3,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,68</t>
+          <t>0,9; 2,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,0</t>
+          <t>2,28; 3,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,68</t>
+          <t>1,68; 2,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,87</t>
+          <t>2,48; 3,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,76</t>
+          <t>1,72; 2,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,94</t>
+          <t>2,49; 3,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,33</t>
+          <t>5,63; 7,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 9,37</t>
+          <t>7,37; 9,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,94</t>
+          <t>6,2; 8,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,09</t>
+          <t>5,95; 8,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 4,86</t>
+          <t>3,84; 4,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 6,46</t>
+          <t>5,22; 6,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,23</t>
+          <t>4,16; 5,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,9</t>
+          <t>4,57; 5,8</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41069</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49847</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31843</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34333</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>129597</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>190466</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>112358</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>98103</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>170667</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>240314</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>144201</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>132436</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30083; 55952</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35685; 66230</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21620; 44154</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24961; 45634</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>109252; 153103</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>165006; 216579</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93670; 135694</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84281; 110900</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>146762; 199114</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>213100; 273013</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>121311; 167894</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>116077; 149973</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17714</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47904</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39381</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>63192</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>71504</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96450</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>122387</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>138356</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>89218</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>144355</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>161769</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>201548</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10421; 27527</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33662; 63840</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28878; 53630</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43380; 82476</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>56197; 90363</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78494; 119733</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>102619; 145512</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>100199; 164560</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>73440; 112165</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>118599; 169282</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>136367; 188046</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>164390; 236903</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11317</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9050</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2983</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14232</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17080</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9689</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14541</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25148</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28396</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18739</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17524</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39379</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5789; 19212</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3860; 19207</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>885; 8681</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8115; 24686</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9797; 26403</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4756; 17527</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8501; 25355</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18006; 35047</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19682; 40407</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10049; 31151</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9841; 28586</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29784; 51882</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>70100</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106802</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>74207</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111757</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>218181</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>296605</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>249286</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>261606</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>288281</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>403407</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>323493</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>373363</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>55089; 85755</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>84587; 127464</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>58053; 92805</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>85743; 136191</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>190280; 246748</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>261124; 327167</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>218891; 284486</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>217257; 292827</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>255230; 320257</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>363046; 441640</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>287392; 360065</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>324786; 411496</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>